--- a/To Do.xlsx
+++ b/To Do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhaen\EindwerkPG1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5A5F125-FFFD-42AB-B338-3436C1B90B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB31452-4895-4BE7-BC4D-146043CE9914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="3345" windowWidth="17280" windowHeight="9960" xr2:uid="{064505F8-1360-49B7-8143-DDF00683DB32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{064505F8-1360-49B7-8143-DDF00683DB32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>To Do</t>
   </si>
   <si>
-    <t>Create SimulationStatistics Window</t>
-  </si>
-  <si>
-    <t>Populate SimulationStatisticsWindow</t>
-  </si>
-  <si>
-    <t>Export to TXT</t>
-  </si>
-  <si>
-    <t>Change SimulationStatistics Table in DB</t>
-  </si>
-  <si>
     <t>Unit Tests</t>
   </si>
   <si>
-    <t>Cleaning Up</t>
+    <t>Domain checks for valid input</t>
+  </si>
+  <si>
+    <t>Bugfix: all municipalities in db show in statistics instead of only municipalities in simulation</t>
+  </si>
+  <si>
+    <t>Bugfix: woman names get shown under the tab of men names instead of woman names</t>
+  </si>
+  <si>
+    <t>check to see if file has been read already by uploader to avoid double data in db</t>
+  </si>
+  <si>
+    <t>filter what highwaytype can ga trough to db</t>
+  </si>
+  <si>
+    <t>filter streets with unknown municipality to not be included in db</t>
+  </si>
+  <si>
+    <t>give client option to decide with seperator to use in txt export file</t>
+  </si>
+  <si>
+    <t>Code Cleanup</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -428,50 +440,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A01AE8-96C4-43EE-A2FC-6FB4CACF3007}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
